--- a/medicine/Enfance/Kate_DiCamillo/Kate_DiCamillo.xlsx
+++ b/medicine/Enfance/Kate_DiCamillo/Kate_DiCamillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katrina Elizabeth DiCamillo, dite Kate DiCamillo, née le 15 mars 1964 à Philadelphie (Pennsylvanie, États-Unis) est une auteure américaine de livres jeunesse. Elle a reçu la Médaille Newbery pour deux de ses ouvrages, La Quête des Despereaux publié en 2004 et pour Les Aventures de Flora et Ulysse publié en 2013[1]. Elle est surtout connue par sa série de romans de premières lectures, Mercy Watson, illustrée par Chris Van Dusen[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katrina Elizabeth DiCamillo, dite Kate DiCamillo, née le 15 mars 1964 à Philadelphie (Pennsylvanie, États-Unis) est une auteure américaine de livres jeunesse. Elle a reçu la Médaille Newbery pour deux de ses ouvrages, La Quête des Despereaux publié en 2004 et pour Les Aventures de Flora et Ulysse publié en 2013. Elle est surtout connue par sa série de romans de premières lectures, Mercy Watson, illustrée par Chris Van Dusen.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfant, Kate DiCamillo souffrait d'une pneumonie chronique. Pour lui offrir un climat plus doux, sa mère fit déménager toute la famille en Floride alors qu’elle avait cinq ans. Diplômée en anglais en 1987 de l'Université de Floride à Gainesville, elle déménage à Minneapolis, Minnesota en 1993 où elle commence à travailler dans un entrepôt de livres. 
 Son premier roman, Winn-Dixie, publié en 2000 par Candlewick Press, reçoit le prix d'honneur de la Médaille Newbery. Il est adapté au cinéma en 2005 par Wayne Wang sous le titre Winn-Dixie mon meilleur ami.
-En 2014, elle est nommée pour deux ans « ambassadrice pour la littérature jeunesse » par la Bibliothèque du Congrès[1].
-En 2023, elle est sélectionnée pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[3].
+En 2014, elle est nommée pour deux ans « ambassadrice pour la littérature jeunesse » par la Bibliothèque du Congrès.
+En 2023, elle est sélectionnée pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -547,17 +561,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Mercy Watson
-Mercy Watson à la rescousse, Scholastic, 2008 ((en) Mercy Watson to the Rescue, 2005)
+          <t>Série Mercy Watson</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mercy Watson à la rescousse, Scholastic, 2008 ((en) Mercy Watson to the Rescue, 2005)
 Mercy Watson en ballade, Scholastic, 2008 ((en) Mercy Watson Goes for a Ride, 2006)
-Mercy Watson combat le crime, Scholastic, 2009 ((en) Mercy Watson fights Crimes, 2006)
-Série Bink et Ollie
-(en) Bink &amp; Gollie, 2010
+Mercy Watson combat le crime, Scholastic, 2009 ((en) Mercy Watson fights Crimes, 2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kate_DiCamillo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kate_DiCamillo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Bink et Ollie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Bink &amp; Gollie, 2010
 (en) Bink &amp; Gollie : Two for One, 2012
-(en) Bink &amp; Gollie : Best Friends Forever, 2013
-Romans indépendants
-Winn-Dixie, Scholastic, 2004 ((en) Because of Winn-Dixie, 2000)
-La Quête de Despereaux, Hachette, 2008 ((en) The Tale of Despereaux, 2003)[4]
+(en) Bink &amp; Gollie : Best Friends Forever, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kate_DiCamillo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kate_DiCamillo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Winn-Dixie, Scholastic, 2004 ((en) Because of Winn-Dixie, 2000)
+La Quête de Despereaux, Hachette, 2008 ((en) The Tale of Despereaux, 2003)
 L'Odyssée miraculeuse d'Édouard Toulaine, Tourbillon, 2007 ((en) The Miraculous Journey of Edward Tulane, 2006)
 L'Éléphant du magicien, Tourbillon, 2010 ((en) The Magician's Elephant, 2009)
 Les Aventures de Flora et Ulysse, Les Grandes Personnes, 2014 ((en) Flora &amp; Ulysses: The Illuminated Adventures, 2013)
@@ -569,72 +656,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Kate_DiCamillo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Kate_DiCamillo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2001 : Livre d'honneur de la Médaille Newbery pour Winn-Dixie.
 2001 : Finaliste du National Book Award de littérature jeunesse pour The Tiger Rising.
 2003 : Young Reader's Choice Award
 2004 : Médaille Newbery pour La Quête de Despereaux (The Tale of Despereaux)
 2006 : Young Reader's Choice Award
-2007 : Geisel Award pour Mercy Watson en ballade[5].
+2007 : Geisel Award pour Mercy Watson en ballade.
 2009 : Young Reader's Choice Award
-2014 : Guardian Children Fiction's Prize pour Les Aventures de Flora et Ulysse[6].
-2014 : Médaille Newbery pour Les Aventures de Flora et Ulysse[7].
+2014 : Guardian Children Fiction's Prize pour Les Aventures de Flora et Ulysse.
+2014 : Médaille Newbery pour Les Aventures de Flora et Ulysse.
 2014-2015 : National Ambassador for Young People's Literature
 2019 : Médaille Regina
-2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée[3]</t>
+2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Kate_DiCamillo</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Kate_DiCamillo</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre au cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Winn-Dixie mon meilleur ami, film américain de Wayne Wang, d'après son premier roman, Winn-Dixie publié en 2000.
 La Légende de Despereaux
